--- a/stock_historical_data/1wk/JKTYRE.NS.xlsx
+++ b/stock_historical_data/1wk/JKTYRE.NS.xlsx
@@ -55799,7 +55799,9 @@
       <c r="P1044" t="n">
         <v>0</v>
       </c>
-      <c r="Q1044" t="inlineStr"/>
+      <c r="Q1044" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKTYRE.NS.xlsx
+++ b/stock_historical_data/1wk/JKTYRE.NS.xlsx
@@ -58989,7 +58989,9 @@
       <c r="Q1045" t="n">
         <v>0</v>
       </c>
-      <c r="R1045" t="inlineStr"/>
+      <c r="R1045" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKTYRE.NS.xlsx
+++ b/stock_historical_data/1wk/JKTYRE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1045"/>
+  <dimension ref="A1:R1047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58813,7 +58813,7 @@
         <v>21</v>
       </c>
       <c r="O1042" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1042" t="n">
         <v>0</v>
@@ -58992,6 +58992,114 @@
       <c r="R1045" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>398.75</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>404.1499938964844</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>390.6000061035156</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>397.3999938964844</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>397.3999938964844</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>3452815</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1046" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>398.0499877929688</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>434</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>390</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>429.75</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>429.75</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>16361185</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1047" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1047" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKTYRE.NS.xlsx
+++ b/stock_historical_data/1wk/JKTYRE.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1047"/>
+  <dimension ref="A1:R1082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
         <v>0</v>
@@ -58925,7 +58925,7 @@
         <v>23</v>
       </c>
       <c r="O1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1044" t="n">
         <v>0</v>
@@ -59045,7 +59045,9 @@
       <c r="Q1046" t="n">
         <v>0</v>
       </c>
-      <c r="R1046" t="inlineStr"/>
+      <c r="R1046" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" s="2" t="n">
@@ -59099,7 +59101,1829 @@
       <c r="Q1047" t="n">
         <v>0</v>
       </c>
-      <c r="R1047" t="inlineStr"/>
+      <c r="R1047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>431.5255616123063</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>461.2859451717756</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>429.7895392380038</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>453.1514282226562</v>
+      </c>
+      <c r="F1048" t="inlineStr"/>
+      <c r="G1048" t="n">
+        <v>16756647</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1048" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1048" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>453.1514335380946</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>466.2460145673908</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>436.4856306588339</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>447.4969787597656</v>
+      </c>
+      <c r="F1049" t="inlineStr"/>
+      <c r="G1049" t="n">
+        <v>9909130</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1049" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>456.077884884948</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>506.9185408944174</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>436.1880403507746</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>438.3208618164062</v>
+      </c>
+      <c r="F1050" t="inlineStr"/>
+      <c r="G1050" t="n">
+        <v>18917579</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1050" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>436.4856362329417</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>447.1001854054106</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>404.2948084512309</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>440.7016906738281</v>
+      </c>
+      <c r="F1051" t="inlineStr"/>
+      <c r="G1051" t="n">
+        <v>5010859</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1051" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>447.5</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>459.2999877929688</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>426.5499877929688</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>431.1000061035156</v>
+      </c>
+      <c r="F1052" t="inlineStr"/>
+      <c r="G1052" t="n">
+        <v>5593482</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1052" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>429.9500122070312</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>400.1000061035156</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>411.5499877929688</v>
+      </c>
+      <c r="F1053" t="inlineStr"/>
+      <c r="G1053" t="n">
+        <v>5432084</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1053" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>413.5499877929688</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>414.6000061035156</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>389.4500122070312</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>396.5499877929688</v>
+      </c>
+      <c r="F1054" t="inlineStr"/>
+      <c r="G1054" t="n">
+        <v>3109760</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1054" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1054" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>400.7000122070312</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>422</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>398.7999877929688</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>408.8999938964844</v>
+      </c>
+      <c r="F1055" t="inlineStr"/>
+      <c r="G1055" t="n">
+        <v>3845311</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1055" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>410.1000061035156</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>412.8500061035156</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>400</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>400.2999877929688</v>
+      </c>
+      <c r="F1056" t="inlineStr"/>
+      <c r="G1056" t="n">
+        <v>2756685</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1056" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1056" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>405.8999938964844</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>428</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>400.2000122070312</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>415</v>
+      </c>
+      <c r="F1057" t="inlineStr"/>
+      <c r="G1057" t="n">
+        <v>6395328</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1057" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>415</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>446.3999938964844</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>403.6499938964844</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>443.5499877929688</v>
+      </c>
+      <c r="F1058" t="inlineStr"/>
+      <c r="G1058" t="n">
+        <v>7966747</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1058" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>445</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>453</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>415</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>428.2999877929688</v>
+      </c>
+      <c r="F1059" t="inlineStr"/>
+      <c r="G1059" t="n">
+        <v>5590787</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1059" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>430.3500061035156</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>436.9500122070312</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>433.3999938964844</v>
+      </c>
+      <c r="F1060" t="inlineStr"/>
+      <c r="G1060" t="n">
+        <v>5773538</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1060" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>432.1000061035156</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>436.3500061035156</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>400.6499938964844</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>405.1000061035156</v>
+      </c>
+      <c r="F1061" t="inlineStr"/>
+      <c r="G1061" t="n">
+        <v>2983495</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1061" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>408</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>408</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>384.7000122070312</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>402.2000122070312</v>
+      </c>
+      <c r="F1062" t="inlineStr"/>
+      <c r="G1062" t="n">
+        <v>3031097</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1062" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>404.9500122070312</v>
+      </c>
+      <c r="C1063" t="n">
+        <v>411.3999938964844</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>385</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>399.8500061035156</v>
+      </c>
+      <c r="F1063" t="inlineStr"/>
+      <c r="G1063" t="n">
+        <v>2102270</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1063" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>399.8500061035156</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>414.5</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>368.25</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>374</v>
+      </c>
+      <c r="F1064" t="inlineStr"/>
+      <c r="G1064" t="n">
+        <v>2856539</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1064" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>377.8500061035156</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>401.5</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>369</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>397.8999938964844</v>
+      </c>
+      <c r="F1065" t="inlineStr"/>
+      <c r="G1065" t="n">
+        <v>1600825</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1065" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1065" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>397.8500061035156</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>398.8500061035156</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>368.7000122070312</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>377.4500122070312</v>
+      </c>
+      <c r="F1066" t="inlineStr"/>
+      <c r="G1066" t="n">
+        <v>3573551</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1066" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>377.6499938964844</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>379.9500122070312</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>355.1499938964844</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="F1067" t="inlineStr"/>
+      <c r="G1067" t="n">
+        <v>1804814</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1067" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1067" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>371</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>389.8999938964844</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>361.2000122070312</v>
+      </c>
+      <c r="F1068" t="inlineStr"/>
+      <c r="G1068" t="n">
+        <v>2533206</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1068" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>369.8999938964844</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>384.0499877929688</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>382</v>
+      </c>
+      <c r="F1069" t="inlineStr"/>
+      <c r="G1069" t="n">
+        <v>1738159</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1069" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>382.1499938964844</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>379.2000122070312</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>393.6000061035156</v>
+      </c>
+      <c r="F1070" t="inlineStr"/>
+      <c r="G1070" t="n">
+        <v>1857237</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1070" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>392.6499938964844</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>424</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>392.0499877929688</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>408.7000122070312</v>
+      </c>
+      <c r="F1071" t="inlineStr"/>
+      <c r="G1071" t="n">
+        <v>8620519</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1071" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>411.8999938964844</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>415.3999938964844</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>379.0499877929688</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="F1072" t="inlineStr"/>
+      <c r="G1072" t="n">
+        <v>2633659</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1072" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>392.25</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>378.8500061035156</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>384.2000122070312</v>
+      </c>
+      <c r="F1073" t="inlineStr"/>
+      <c r="G1073" t="n">
+        <v>1356592</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1073" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>396.1000061035156</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>381</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>387.4500122070312</v>
+      </c>
+      <c r="F1074" t="inlineStr"/>
+      <c r="G1074" t="n">
+        <v>1578613</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>387.7000122070312</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>390</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>359.1000061035156</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>362.7000122070312</v>
+      </c>
+      <c r="F1075" t="inlineStr"/>
+      <c r="G1075" t="n">
+        <v>1209426</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1075" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>357.2000122070312</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>369.5499877929688</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>349.6000061035156</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>359.2999877929688</v>
+      </c>
+      <c r="F1076" t="inlineStr"/>
+      <c r="G1076" t="n">
+        <v>1294476</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>362.8999938964844</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>364.2000122070312</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>341.3500061035156</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>342.2999877929688</v>
+      </c>
+      <c r="F1077" t="inlineStr"/>
+      <c r="G1077" t="n">
+        <v>1505783</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1077" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1077" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>336</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>340</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>305.8999938964844</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>323.9500122070312</v>
+      </c>
+      <c r="F1078" t="inlineStr"/>
+      <c r="G1078" t="n">
+        <v>3116131</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1078" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>320</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>321.5499877929688</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>297.6499938964844</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="F1079" t="inlineStr"/>
+      <c r="G1079" t="n">
+        <v>4967419</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1079" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>306.3500061035156</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>308.2000122070312</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>281.9500122070312</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="F1080" t="inlineStr"/>
+      <c r="G1080" t="n">
+        <v>2033229</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1080" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>284.7999877929688</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>298.9500122070312</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>292.0499877929688</v>
+      </c>
+      <c r="F1081" t="inlineStr"/>
+      <c r="G1081" t="n">
+        <v>2365633</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1081" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>291.2000122070312</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>291.3999938964844</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>259.25</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>264.8500061035156</v>
+      </c>
+      <c r="F1082" t="inlineStr"/>
+      <c r="G1082" t="n">
+        <v>1622206</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1082" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1082" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/JKTYRE.NS.xlsx
+++ b/stock_historical_data/1wk/JKTYRE.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1082"/>
+  <dimension ref="A1:R1091"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59155,7 +59155,9 @@
       <c r="Q1048" t="n">
         <v>2</v>
       </c>
-      <c r="R1048" t="inlineStr"/>
+      <c r="R1048" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1049">
       <c r="A1049" s="2" t="n">
@@ -59207,7 +59209,9 @@
       <c r="Q1049" t="n">
         <v>0</v>
       </c>
-      <c r="R1049" t="inlineStr"/>
+      <c r="R1049" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050">
       <c r="A1050" s="2" t="n">
@@ -59259,7 +59263,9 @@
       <c r="Q1050" t="n">
         <v>1</v>
       </c>
-      <c r="R1050" t="inlineStr"/>
+      <c r="R1050" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1051">
       <c r="A1051" s="2" t="n">
@@ -59311,7 +59317,9 @@
       <c r="Q1051" t="n">
         <v>0</v>
       </c>
-      <c r="R1051" t="inlineStr"/>
+      <c r="R1051" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1052">
       <c r="A1052" s="2" t="n">
@@ -59363,7 +59371,9 @@
       <c r="Q1052" t="n">
         <v>0</v>
       </c>
-      <c r="R1052" t="inlineStr"/>
+      <c r="R1052" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1053">
       <c r="A1053" s="2" t="n">
@@ -59415,7 +59425,9 @@
       <c r="Q1053" t="n">
         <v>0</v>
       </c>
-      <c r="R1053" t="inlineStr"/>
+      <c r="R1053" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1054">
       <c r="A1054" s="2" t="n">
@@ -59467,7 +59479,9 @@
       <c r="Q1054" t="n">
         <v>0</v>
       </c>
-      <c r="R1054" t="inlineStr"/>
+      <c r="R1054" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" s="2" t="n">
@@ -59519,7 +59533,9 @@
       <c r="Q1055" t="n">
         <v>0</v>
       </c>
-      <c r="R1055" t="inlineStr"/>
+      <c r="R1055" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" s="2" t="n">
@@ -59571,7 +59587,9 @@
       <c r="Q1056" t="n">
         <v>2</v>
       </c>
-      <c r="R1056" t="inlineStr"/>
+      <c r="R1056" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" s="2" t="n">
@@ -59623,7 +59641,9 @@
       <c r="Q1057" t="n">
         <v>0</v>
       </c>
-      <c r="R1057" t="inlineStr"/>
+      <c r="R1057" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1058">
       <c r="A1058" s="2" t="n">
@@ -59675,7 +59695,9 @@
       <c r="Q1058" t="n">
         <v>0</v>
       </c>
-      <c r="R1058" t="inlineStr"/>
+      <c r="R1058" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1059">
       <c r="A1059" s="2" t="n">
@@ -59727,7 +59749,9 @@
       <c r="Q1059" t="n">
         <v>0</v>
       </c>
-      <c r="R1059" t="inlineStr"/>
+      <c r="R1059" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1060">
       <c r="A1060" s="2" t="n">
@@ -59779,7 +59803,9 @@
       <c r="Q1060" t="n">
         <v>1</v>
       </c>
-      <c r="R1060" t="inlineStr"/>
+      <c r="R1060" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" s="2" t="n">
@@ -59831,7 +59857,9 @@
       <c r="Q1061" t="n">
         <v>0</v>
       </c>
-      <c r="R1061" t="inlineStr"/>
+      <c r="R1061" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1062">
       <c r="A1062" s="2" t="n">
@@ -59883,7 +59911,9 @@
       <c r="Q1062" t="n">
         <v>0</v>
       </c>
-      <c r="R1062" t="inlineStr"/>
+      <c r="R1062" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1063">
       <c r="A1063" s="2" t="n">
@@ -59935,7 +59965,9 @@
       <c r="Q1063" t="n">
         <v>0</v>
       </c>
-      <c r="R1063" t="inlineStr"/>
+      <c r="R1063" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1064">
       <c r="A1064" s="2" t="n">
@@ -59987,7 +60019,9 @@
       <c r="Q1064" t="n">
         <v>0</v>
       </c>
-      <c r="R1064" t="inlineStr"/>
+      <c r="R1064" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1065">
       <c r="A1065" s="2" t="n">
@@ -60039,7 +60073,9 @@
       <c r="Q1065" t="n">
         <v>2</v>
       </c>
-      <c r="R1065" t="inlineStr"/>
+      <c r="R1065" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" s="2" t="n">
@@ -60091,7 +60127,9 @@
       <c r="Q1066" t="n">
         <v>0</v>
       </c>
-      <c r="R1066" t="inlineStr"/>
+      <c r="R1066" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1067">
       <c r="A1067" s="2" t="n">
@@ -60143,7 +60181,9 @@
       <c r="Q1067" t="n">
         <v>0</v>
       </c>
-      <c r="R1067" t="inlineStr"/>
+      <c r="R1067" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" s="2" t="n">
@@ -60195,7 +60235,9 @@
       <c r="Q1068" t="n">
         <v>0</v>
       </c>
-      <c r="R1068" t="inlineStr"/>
+      <c r="R1068" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" s="2" t="n">
@@ -60247,7 +60289,9 @@
       <c r="Q1069" t="n">
         <v>0</v>
       </c>
-      <c r="R1069" t="inlineStr"/>
+      <c r="R1069" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1070">
       <c r="A1070" s="2" t="n">
@@ -60299,7 +60343,9 @@
       <c r="Q1070" t="n">
         <v>0</v>
       </c>
-      <c r="R1070" t="inlineStr"/>
+      <c r="R1070" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1071">
       <c r="A1071" s="2" t="n">
@@ -60351,7 +60397,9 @@
       <c r="Q1071" t="n">
         <v>0</v>
       </c>
-      <c r="R1071" t="inlineStr"/>
+      <c r="R1071" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1072">
       <c r="A1072" s="2" t="n">
@@ -60403,7 +60451,9 @@
       <c r="Q1072" t="n">
         <v>0</v>
       </c>
-      <c r="R1072" t="inlineStr"/>
+      <c r="R1072" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" s="2" t="n">
@@ -60455,7 +60505,9 @@
       <c r="Q1073" t="n">
         <v>1</v>
       </c>
-      <c r="R1073" t="inlineStr"/>
+      <c r="R1073" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" s="2" t="n">
@@ -60507,7 +60559,9 @@
       <c r="Q1074" t="n">
         <v>0</v>
       </c>
-      <c r="R1074" t="inlineStr"/>
+      <c r="R1074" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1075">
       <c r="A1075" s="2" t="n">
@@ -60559,7 +60613,9 @@
       <c r="Q1075" t="n">
         <v>0</v>
       </c>
-      <c r="R1075" t="inlineStr"/>
+      <c r="R1075" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1076">
       <c r="A1076" s="2" t="n">
@@ -60611,7 +60667,9 @@
       <c r="Q1076" t="n">
         <v>0</v>
       </c>
-      <c r="R1076" t="inlineStr"/>
+      <c r="R1076" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1077">
       <c r="A1077" s="2" t="n">
@@ -60663,7 +60721,9 @@
       <c r="Q1077" t="n">
         <v>2</v>
       </c>
-      <c r="R1077" t="inlineStr"/>
+      <c r="R1077" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1078">
       <c r="A1078" s="2" t="n">
@@ -60715,7 +60775,9 @@
       <c r="Q1078" t="n">
         <v>0</v>
       </c>
-      <c r="R1078" t="inlineStr"/>
+      <c r="R1078" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1079">
       <c r="A1079" s="2" t="n">
@@ -60767,7 +60829,9 @@
       <c r="Q1079" t="n">
         <v>0</v>
       </c>
-      <c r="R1079" t="inlineStr"/>
+      <c r="R1079" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" s="2" t="n">
@@ -60819,7 +60883,9 @@
       <c r="Q1080" t="n">
         <v>0</v>
       </c>
-      <c r="R1080" t="inlineStr"/>
+      <c r="R1080" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1081">
       <c r="A1081" s="2" t="n">
@@ -60871,7 +60937,9 @@
       <c r="Q1081" t="n">
         <v>0</v>
       </c>
-      <c r="R1081" t="inlineStr"/>
+      <c r="R1081" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1082">
       <c r="A1082" s="2" t="n">
@@ -60923,7 +60991,477 @@
       <c r="Q1082" t="n">
         <v>0</v>
       </c>
-      <c r="R1082" t="inlineStr"/>
+      <c r="R1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>265</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>243</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>279.6499938964844</v>
+      </c>
+      <c r="F1083" t="inlineStr"/>
+      <c r="G1083" t="n">
+        <v>6316545</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1083" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1083" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>281.7999877929688</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>286</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>267.8999938964844</v>
+      </c>
+      <c r="F1084" t="inlineStr"/>
+      <c r="G1084" t="n">
+        <v>1766438</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1084" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>269.3999938964844</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>297.75</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>263</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>294.75</v>
+      </c>
+      <c r="F1085" t="inlineStr"/>
+      <c r="G1085" t="n">
+        <v>2032895</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1085" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>295.9500122070312</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>300.9500122070312</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>275</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="F1086" t="inlineStr"/>
+      <c r="G1086" t="n">
+        <v>2323410</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1086" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>277.4500122070312</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>276.0499877929688</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>278.4500122070312</v>
+      </c>
+      <c r="F1087" t="inlineStr"/>
+      <c r="G1087" t="n">
+        <v>1410673</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1087" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>285.2000122070312</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="F1088" t="inlineStr"/>
+      <c r="G1088" t="n">
+        <v>2220848</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1088" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>309.7000122070312</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>284.0499877929688</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>307</v>
+      </c>
+      <c r="F1089" t="inlineStr"/>
+      <c r="G1089" t="n">
+        <v>4750017</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1089" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1089" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>319.2999877929688</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>305</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>310</v>
+      </c>
+      <c r="F1090" t="inlineStr"/>
+      <c r="G1090" t="n">
+        <v>3919878</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1090" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>310</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>310.3999938964844</v>
+      </c>
+      <c r="F1091" t="inlineStr"/>
+      <c r="G1091" t="n">
+        <v>3288893</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1091" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1091" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
